--- a/Dokumente/Zeiterfassung/Zeiterfassung_UnityUnit_GermoGoetz.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_UnityUnit_GermoGoetz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\Software Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germo\OneDrive\Dokumente\GitHub\unityunit\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9D1BC8-E879-4D37-A6DB-F790685EF87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C7E063-5D39-4390-BC8A-62D9D5F0A0E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Name:</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Eigenständige Einarbeitung in Unity/C# durch Bus-Modellierung</t>
+  </si>
+  <si>
+    <t>26.10.20.20</t>
+  </si>
+  <si>
+    <t>Sprintplannung</t>
   </si>
 </sst>
 </file>
@@ -269,12 +275,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -283,6 +283,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,14 +312,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
+        <right/>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -337,12 +341,14 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -486,13 +492,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8571C4D5-86B9-44BE-B623-D28289C348FB}" name="Table1" displayName="Table1" ref="A10:D17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A10:D17" xr:uid="{0778D9DD-8D0C-4ECC-92F9-05489ED98856}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8571C4D5-86B9-44BE-B623-D28289C348FB}" name="Table1" displayName="Table1" ref="A10:D18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A10:D18" xr:uid="{0778D9DD-8D0C-4ECC-92F9-05489ED98856}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DEDCB1F6-FCE9-4EF8-98CA-0F865211DEF8}" name="Datum" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{251E8C5D-AA12-418C-A8A0-4AF11DF5E88D}" name="Dauer [h]" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{DAC67E43-CF69-4776-9644-C5A076DAA385}" name="Buchungsposten" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{5B4D8404-D9EF-47A3-B389-C312B7E3BE55}" name="Beschreibung" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DAC67E43-CF69-4776-9644-C5A076DAA385}" name="Buchungsposten" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{5B4D8404-D9EF-47A3-B389-C312B7E3BE55}" name="Beschreibung" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -774,7 +780,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,11 +793,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
@@ -804,42 +810,42 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="13">
         <v>3124576</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="13" t="str">
         <f>Projekt_Name</f>
         <v>"Montagereihenfolge intuitiv bestimmen mit VR</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -847,7 +853,7 @@
       </c>
       <c r="B9" s="7">
         <f>SUM(B11:B203)</f>
-        <v>17.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -865,13 +871,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>44104</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -879,13 +885,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>44111</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>4</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -893,13 +899,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>44120</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>3</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -907,13 +913,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>44121</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>4</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -921,13 +927,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>44123</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -935,13 +941,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>44125</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -949,13 +955,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>44127</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>0.5</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -963,10 +969,18 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1102,7 +1116,7 @@
           <x14:formula1>
             <xm:f>Hintergrund_Tabellen!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C11:C17</xm:sqref>
+          <xm:sqref>C11:C18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_UnityUnit_GermoGoetz.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_UnityUnit_GermoGoetz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germo\OneDrive\Dokumente\GitHub\unityunit\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C7E063-5D39-4390-BC8A-62D9D5F0A0E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ADF3D5-997D-4C60-AF35-F438BC172F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Name:</t>
   </si>
@@ -106,10 +106,16 @@
     <t>Eigenständige Einarbeitung in Unity/C# durch Bus-Modellierung</t>
   </si>
   <si>
-    <t>26.10.20.20</t>
-  </si>
-  <si>
     <t>Sprintplannung</t>
+  </si>
+  <si>
+    <t>Abholung VR-Brille</t>
+  </si>
+  <si>
+    <t>Sprint Review und anschließendes Teammeeting</t>
+  </si>
+  <si>
+    <t>Sprint Planung, Überarbeitung der Tasks, Verlegung Teammeeting auf Mittwoch 9-11 Uhr</t>
   </si>
 </sst>
 </file>
@@ -492,8 +498,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8571C4D5-86B9-44BE-B623-D28289C348FB}" name="Table1" displayName="Table1" ref="A10:D18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A10:D18" xr:uid="{0778D9DD-8D0C-4ECC-92F9-05489ED98856}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8571C4D5-86B9-44BE-B623-D28289C348FB}" name="Table1" displayName="Table1" ref="A10:D21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A10:D21" xr:uid="{0778D9DD-8D0C-4ECC-92F9-05489ED98856}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DEDCB1F6-FCE9-4EF8-98CA-0F865211DEF8}" name="Datum" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{251E8C5D-AA12-418C-A8A0-4AF11DF5E88D}" name="Dauer [h]" dataDxfId="2"/>
@@ -780,7 +786,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +859,7 @@
       </c>
       <c r="B9" s="7">
         <f>SUM(B11:B203)</f>
-        <v>19</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -969,8 +975,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>24</v>
+      <c r="A18" s="10">
+        <v>44130</v>
       </c>
       <c r="B18" s="11">
         <v>1.5</v>
@@ -979,26 +985,50 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>44132</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="A20" s="10">
+        <v>44139</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>44140</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1116,7 +1146,7 @@
           <x14:formula1>
             <xm:f>Hintergrund_Tabellen!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C11:C18</xm:sqref>
+          <xm:sqref>C11:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_UnityUnit_GermoGoetz.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_UnityUnit_GermoGoetz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germo\OneDrive\Dokumente\GitHub\unityunit\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ADF3D5-997D-4C60-AF35-F438BC172F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E18C4B-7925-418F-9631-93DD8B349B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Name:</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Götz, Germo</t>
   </si>
   <si>
-    <t>"Montagereihenfolge intuitiv bestimmen mit VR</t>
-  </si>
-  <si>
     <t>UnityUnit</t>
   </si>
   <si>
@@ -116,6 +113,21 @@
   </si>
   <si>
     <t>Sprint Planung, Überarbeitung der Tasks, Verlegung Teammeeting auf Mittwoch 9-11 Uhr</t>
+  </si>
+  <si>
+    <t>Nachforschung Objekt Erzeugung in Unity</t>
+  </si>
+  <si>
+    <t>Nachforschung Objekte (Spawn, Destroy), Programmierung davon durch Tasten Keys und Erzeugung Stationsmodelle</t>
+  </si>
+  <si>
+    <t>Nachforschung Raycasts, Erzeugen von Objekten an Mauspositionen. Programmierung davon.</t>
+  </si>
+  <si>
+    <t>Teammeeting, Vorbereitung Präsentation</t>
+  </si>
+  <si>
+    <t>Unity Assembler</t>
   </si>
 </sst>
 </file>
@@ -498,8 +510,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8571C4D5-86B9-44BE-B623-D28289C348FB}" name="Table1" displayName="Table1" ref="A10:D21" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A10:D21" xr:uid="{0778D9DD-8D0C-4ECC-92F9-05489ED98856}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8571C4D5-86B9-44BE-B623-D28289C348FB}" name="Table1" displayName="Table1" ref="A10:D26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A10:D26" xr:uid="{0778D9DD-8D0C-4ECC-92F9-05489ED98856}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DEDCB1F6-FCE9-4EF8-98CA-0F865211DEF8}" name="Datum" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{251E8C5D-AA12-418C-A8A0-4AF11DF5E88D}" name="Dauer [h]" dataDxfId="2"/>
@@ -783,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +817,7 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -837,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -848,7 +860,7 @@
       </c>
       <c r="B6" s="13" t="str">
         <f>Projekt_Name</f>
-        <v>"Montagereihenfolge intuitiv bestimmen mit VR</v>
+        <v>Unity Assembler</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -858,8 +870,8 @@
         <v>13</v>
       </c>
       <c r="B9" s="7">
-        <f>SUM(B11:B203)</f>
-        <v>22.5</v>
+        <f>SUM(B11:B204)</f>
+        <v>34.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -887,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -901,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -915,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -929,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -943,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -957,7 +969,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,7 +983,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -999,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1013,12 +1025,12 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
@@ -1027,38 +1039,78 @@
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>44149</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="A23" s="10">
+        <v>44153</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>44163</v>
+      </c>
+      <c r="B24" s="11">
+        <v>3</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>44165</v>
+      </c>
+      <c r="B25" s="11">
+        <v>4</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="10">
+        <v>44166</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1125,6 +1177,12 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_UnityUnit_GermoGoetz.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_UnityUnit_GermoGoetz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\germo\OneDrive\Dokumente\GitHub\unityunit\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E18C4B-7925-418F-9631-93DD8B349B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10BBCD7-23EC-4E64-B686-DB6DB93A60BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Name:</t>
   </si>
@@ -118,16 +118,31 @@
     <t>Nachforschung Objekt Erzeugung in Unity</t>
   </si>
   <si>
-    <t>Nachforschung Objekte (Spawn, Destroy), Programmierung davon durch Tasten Keys und Erzeugung Stationsmodelle</t>
-  </si>
-  <si>
-    <t>Nachforschung Raycasts, Erzeugen von Objekten an Mauspositionen. Programmierung davon.</t>
-  </si>
-  <si>
     <t>Teammeeting, Vorbereitung Präsentation</t>
   </si>
   <si>
     <t>Unity Assembler</t>
+  </si>
+  <si>
+    <t>Nachforschung/Test Objekte (Spawn, Destroy), Programmierung davon durch Tasten Keys und Erzeugung Stationsmodelle</t>
+  </si>
+  <si>
+    <t>Nachforschung/Test Raycasts, Erzeugen von Objekten an Mauspositionen. Programmierung davon.</t>
+  </si>
+  <si>
+    <t>Bug in der VR Steurerung, Controller werden nicht getrackt.</t>
+  </si>
+  <si>
+    <t>Nachforschung/Test Controller Bug</t>
+  </si>
+  <si>
+    <t>Aufarbeitung Dokumentation</t>
+  </si>
+  <si>
+    <t>Dokumentationsarbeit</t>
+  </si>
+  <si>
+    <t>Bug in der VR Steurerung, weitere Nachforschung</t>
   </si>
 </sst>
 </file>
@@ -510,8 +525,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8571C4D5-86B9-44BE-B623-D28289C348FB}" name="Table1" displayName="Table1" ref="A10:D26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A10:D26" xr:uid="{0778D9DD-8D0C-4ECC-92F9-05489ED98856}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8571C4D5-86B9-44BE-B623-D28289C348FB}" name="Table1" displayName="Table1" ref="A10:D33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A10:D33" xr:uid="{0778D9DD-8D0C-4ECC-92F9-05489ED98856}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DEDCB1F6-FCE9-4EF8-98CA-0F865211DEF8}" name="Datum" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{251E8C5D-AA12-418C-A8A0-4AF11DF5E88D}" name="Dauer [h]" dataDxfId="2"/>
@@ -523,8 +538,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5500B00-F210-4475-8F4F-2F0D7B70ADB2}" name="Buchungsposten" displayName="Buchungsposten" ref="A1:A5" totalsRowShown="0">
-  <autoFilter ref="A1:A5" xr:uid="{7A1C897D-C116-4AB5-A70A-3770ADA5713E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5500B00-F210-4475-8F4F-2F0D7B70ADB2}" name="Buchungsposten" displayName="Buchungsposten" ref="A1:A6" totalsRowShown="0">
+  <autoFilter ref="A1:A6" xr:uid="{7A1C897D-C116-4AB5-A70A-3770ADA5713E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
+    <sortCondition ref="A1:A6"/>
+  </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9BDF1A09-C636-4CD0-87EF-7D62691B9784}" name="Buchungsposten"/>
   </tableColumns>
@@ -795,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +835,7 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -870,8 +888,8 @@
         <v>13</v>
       </c>
       <c r="B9" s="7">
-        <f>SUM(B11:B204)</f>
-        <v>34.5</v>
+        <f>SUM(B11:B209)</f>
+        <v>56.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
@@ -935,7 +953,7 @@
         <v>44121</v>
       </c>
       <c r="B14" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
@@ -949,7 +967,7 @@
         <v>44123</v>
       </c>
       <c r="B15" s="11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>9</v>
@@ -977,7 +995,7 @@
         <v>44127</v>
       </c>
       <c r="B17" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>9</v>
@@ -1005,7 +1023,7 @@
         <v>44132</v>
       </c>
       <c r="B19" s="11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>12</v>
@@ -1070,18 +1088,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>44163</v>
       </c>
       <c r="B24" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1089,13 +1107,13 @@
         <v>44165</v>
       </c>
       <c r="B25" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,50 +1127,98 @@
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="10">
+        <v>44173</v>
+      </c>
+      <c r="B27" s="11">
+        <v>3</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="10">
+        <v>44175</v>
+      </c>
+      <c r="B28" s="11">
+        <v>4</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="10">
+        <v>44181</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="10">
+        <v>44193</v>
+      </c>
+      <c r="B30" s="11">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="A31" s="10">
+        <v>44205</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="A32" s="10">
+        <v>44209</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
@@ -1183,6 +1249,36 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1202,7 +1298,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16AA45B7-6FEB-4C61-973A-8641AFEFF168}">
           <x14:formula1>
-            <xm:f>Hintergrund_Tabellen!$A$2:$A$5</xm:f>
+            <xm:f>Hintergrund_Tabellen!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>C11:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -1214,9 +1310,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599918CC-ED3A-4050-8F04-F2EE9F150F0E}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A3:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1230,22 +1328,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
